--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3263.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3263.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.265697249331286</v>
+        <v>3.560068368911743</v>
       </c>
       <c r="B1">
-        <v>1.592229226034185</v>
+        <v>2.414801120758057</v>
       </c>
       <c r="C1">
-        <v>2.304559766544768</v>
+        <v>1.773718118667603</v>
       </c>
       <c r="D1">
-        <v>5.789448432702727</v>
+        <v>1.617916584014893</v>
       </c>
       <c r="E1">
-        <v>2.062206838114139</v>
+        <v>1.437620162963867</v>
       </c>
     </row>
   </sheetData>
